--- a/DaySale_2025-05-26_17-58.xlsx
+++ b/DaySale_2025-05-26_17-58.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>210.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -98,9 +113,6 @@
     <t>39.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -116,9 +128,6 @@
     <t>EMPACOZA 25 MG 30 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>240.00</t>
   </si>
   <si>
@@ -146,6 +155,15 @@
     <t>138.0000</t>
   </si>
   <si>
+    <t>LIPANTHYL 300MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
     <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
   </si>
   <si>
@@ -200,6 +218,27 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>TENSOPLERON 25MG 30 F.C TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>153.00</t>
+  </si>
+  <si>
+    <t>153.0000</t>
+  </si>
+  <si>
     <t>TIRALEPSY 100MG/ML ORAL SOL. 120 ML</t>
   </si>
   <si>
@@ -249,9 +288,6 @@
   </si>
   <si>
     <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>2.00</t>
@@ -986,14 +1022,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1002,14 +1038,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1019,14 +1055,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1059,7 +1095,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1108,7 +1144,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1118,14 +1154,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1134,14 +1170,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1158,7 +1194,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1174,7 +1210,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1184,14 +1220,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1200,14 +1236,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1217,14 +1253,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1233,14 +1269,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1250,14 +1286,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1266,14 +1302,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1290,7 +1326,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1306,7 +1342,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1323,7 +1359,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1332,14 +1368,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1349,14 +1385,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1365,7 +1401,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1382,14 +1418,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>68</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1405,7 +1441,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1415,14 +1451,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1431,20 +1467,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1455,7 +1491,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1471,7 +1507,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1481,14 +1517,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1504,24 +1540,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1530,20 +1566,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1554,42 +1590,174 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>1036.27</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>86</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>52</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>13</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>87</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>88</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c t="s" r="Q27" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>89</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>90</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>13</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>14</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>92</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>18</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>73</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>93</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>95</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>18</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>73</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>96</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1657.27</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>98</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>99</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>100</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1698,10 +1866,30 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
